--- a/Img/Week15/dnds_magnitude.xlsx
+++ b/Img/Week15/dnds_magnitude.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\PiB\Variants-and-mutation-rate-in-SARS-Cov2\Img\Week15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B715A48D-267C-450E-AA91-5492FE9D6563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BC4E66-A711-4452-BDF8-B0C4F7147B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2570" yWindow="410" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2130" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>BA.5.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/8181367</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -465,37 +461,37 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.735911</v>
+        <v>1.6648350000000001</v>
       </c>
       <c r="C2">
-        <v>1.573563</v>
+        <v>1.2177412000000001</v>
       </c>
       <c r="D2">
-        <v>0.950299</v>
+        <v>1.1245430999999999</v>
       </c>
       <c r="E2">
         <v>0.66182339999999995</v>
       </c>
       <c r="F2">
-        <v>0.32688970000000001</v>
+        <v>0.32688966000000003</v>
       </c>
       <c r="G2">
-        <v>3.4777360000000002</v>
+        <v>4.0111840000000001</v>
       </c>
       <c r="H2">
-        <v>0.75600078999999998</v>
+        <v>1.22865475</v>
       </c>
       <c r="I2">
-        <v>1.1497448800000001</v>
+        <v>1.02423087</v>
       </c>
       <c r="J2">
-        <v>1.8897538</v>
+        <v>2.0760749999999999</v>
       </c>
       <c r="K2">
-        <v>0.75655760000000005</v>
+        <v>0.64413969999999998</v>
       </c>
       <c r="L2">
-        <v>0.1163889</v>
+        <v>0.25650489999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -506,28 +502,28 @@
         <v>1.7503759999999999</v>
       </c>
       <c r="C3">
-        <v>1.2267093</v>
+        <v>1.573563</v>
       </c>
       <c r="D3">
-        <v>0.4624279</v>
+        <v>0.950299</v>
       </c>
       <c r="E3">
-        <v>0.578426</v>
+        <v>1.0148705</v>
       </c>
       <c r="F3">
-        <v>0.17247090000000001</v>
+        <v>8.3324549999999997E-2</v>
       </c>
       <c r="G3">
         <v>2.6801270000000001</v>
       </c>
       <c r="H3">
-        <v>0.93406840000000002</v>
+        <v>0.75600078999999998</v>
       </c>
       <c r="I3">
         <v>1.4506283799999999</v>
       </c>
       <c r="J3">
-        <v>1.3768096999999999</v>
+        <v>1.3768100000000001</v>
       </c>
       <c r="K3">
         <v>0.83584349999999996</v>
@@ -541,37 +537,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.734696</v>
+        <v>1.666444</v>
       </c>
       <c r="C4">
-        <v>1.1855114</v>
+        <v>1.1847292</v>
       </c>
       <c r="D4">
-        <v>0.47414129999999999</v>
+        <v>1.1317575</v>
       </c>
       <c r="E4">
-        <v>0.69773560000000001</v>
+        <v>1.1498462</v>
       </c>
       <c r="F4">
-        <v>0.22387080000000001</v>
+        <v>0.2257025</v>
       </c>
       <c r="G4">
-        <v>3.4878830000000001</v>
+        <v>4.0838510000000001</v>
       </c>
       <c r="H4">
-        <v>0.85208222</v>
+        <v>1.09186118</v>
       </c>
       <c r="I4">
-        <v>1.09543075</v>
+        <v>1.0141751299999999</v>
       </c>
       <c r="J4">
-        <v>1.7834255000000001</v>
+        <v>1.98824</v>
       </c>
       <c r="K4">
-        <v>0.68116500000000002</v>
+        <v>0.62581750000000003</v>
       </c>
       <c r="L4">
-        <v>0.20623279999999999</v>
+        <v>0.2090909</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -579,37 +575,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.6551990000000001</v>
+        <v>1.5326029999999999</v>
       </c>
       <c r="C5">
-        <v>0.56954669999999996</v>
+        <v>0.61112610000000001</v>
       </c>
       <c r="D5">
-        <v>-0.29818749999999999</v>
+        <v>-0.24480979999999999</v>
       </c>
       <c r="E5">
-        <v>-1.4451997000000001</v>
+        <v>-2.4792040000000002</v>
       </c>
       <c r="F5">
-        <v>-0.74138649999999995</v>
+        <v>-1.39471469</v>
       </c>
       <c r="G5">
-        <v>1.8747849999999999</v>
+        <v>2.6720160000000002</v>
       </c>
       <c r="H5">
-        <v>5.0467280000000003E-2</v>
+        <v>9.4158870000000006E-2</v>
       </c>
       <c r="I5">
-        <v>-8.0020930000000004E-2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
+        <v>5.1279390000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.140487</v>
       </c>
       <c r="K5">
-        <v>-0.33724490000000001</v>
+        <v>-0.23938229999999999</v>
       </c>
       <c r="L5">
-        <v>-3.3843934</v>
+        <v>-2.5188291</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -617,37 +613,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816624</v>
+        <v>1.7970680000000001</v>
       </c>
       <c r="C6">
-        <v>1.8838718000000001</v>
+        <v>1.8243563</v>
       </c>
       <c r="D6">
-        <v>1.2230433000000001</v>
+        <v>2.4938959999999999</v>
       </c>
       <c r="E6">
-        <v>2.6020517000000001</v>
+        <v>4.5089449000000004</v>
       </c>
       <c r="F6">
-        <v>1.0863282999999999</v>
+        <v>1.5613637899999999</v>
       </c>
       <c r="G6">
-        <v>5.0806779999999998</v>
+        <v>5.3503530000000001</v>
       </c>
       <c r="H6">
-        <v>1.8176695300000001</v>
+        <v>2.3631506199999999</v>
       </c>
       <c r="I6">
-        <v>2.3795106800000001</v>
+        <v>1.9971823500000001</v>
       </c>
       <c r="J6">
-        <v>2.9613708000000001</v>
+        <v>3.011663</v>
       </c>
       <c r="K6">
-        <v>1.8503601000000001</v>
+        <v>1.5276616999999999</v>
       </c>
       <c r="L6">
-        <v>3.6117119999999998</v>
+        <v>3.0318388999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Img/Week15/dnds_magnitude.xlsx
+++ b/Img/Week15/dnds_magnitude.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\PiB\Variants-and-mutation-rate-in-SARS-Cov2\Img\Week15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BC4E66-A711-4452-BDF8-B0C4F7147B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E7FE04-93BE-4D68-878D-7BF85B529055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="2130" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,26 @@
   </si>
   <si>
     <t>BA.5.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low CI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upp CI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,50 +433,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -466,35 +486,38 @@
       <c r="C2">
         <v>1.2177412000000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
         <v>1.1245430999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.66182339999999995</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.32688966000000003</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4.0111840000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.22865475</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.02423087</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.0760749999999999</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.64413969999999998</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.25650489999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -504,35 +527,38 @@
       <c r="C3">
         <v>1.573563</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
         <v>0.950299</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.0148705</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8.3324549999999997E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.6801270000000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.75600078999999998</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.4506283799999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.3768100000000001</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.83584349999999996</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1.1849345</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -542,35 +568,38 @@
       <c r="C4">
         <v>1.1847292</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
         <v>1.1317575</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.1498462</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.2257025</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4.0838510000000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.09186118</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.0141751299999999</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.98824</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.62581750000000003</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.2090909</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -580,35 +609,38 @@
       <c r="C5">
         <v>0.61112610000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
         <v>-0.24480979999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-2.4792040000000002</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-1.39471469</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.6720160000000002</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.4158870000000006E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5.1279390000000001E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.140487</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-0.23938229999999999</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-2.5188291</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -618,31 +650,34 @@
       <c r="C6">
         <v>1.8243563</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>2.4938959999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4.5089449000000004</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.5613637899999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.3503530000000001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.3631506199999999</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.9971823500000001</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3.011663</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.5276616999999999</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3.0318388999999999</v>
       </c>
     </row>
